--- a/20201110/◎資訊/data/績效資料/COPR3820201110000181202011100001.xlsx
+++ b/20201110/◎資訊/data/績效資料/COPR3820201110000181202011100001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>有幾園生物科技股份有限公司</t>
   </si>
@@ -22,10 +22,10 @@
     <t>業務員別銷貨期報表</t>
   </si>
   <si>
-    <t>製表日期: 2020/11/09</t>
-  </si>
-  <si>
-    <t>期間: 2020/11/09 至 2020/11/09</t>
+    <t>製表日期: 2020/11/10</t>
+  </si>
+  <si>
+    <t>期間: 2020/11/10 至 2020/11/10</t>
   </si>
   <si>
     <t>第 1 頁</t>
@@ -64,12 +64,18 @@
     <t>黃三和</t>
   </si>
   <si>
+    <t>陳永宗</t>
+  </si>
+  <si>
     <t>陳巧芬</t>
   </si>
   <si>
     <t>柯世鵬</t>
   </si>
   <si>
+    <t>廖士緯</t>
+  </si>
+  <si>
     <t>陳騏毅</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>秦志雄</t>
+  </si>
+  <si>
+    <t>王瑲賢</t>
   </si>
   <si>
     <t>鄭吉珽</t>
@@ -211,7 +220,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -262,13 +271,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>8474</v>
+        <v>20776</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>8474</v>
+        <v>20776</v>
       </c>
     </row>
     <row r="6" ht="12.75">
@@ -276,13 +285,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>1193</v>
+        <v>1375</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>1193</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="7" ht="12.75">
@@ -290,13 +299,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>21425</v>
+        <v>16017</v>
       </c>
       <c r="C7" s="6">
-        <v>2160</v>
+        <v>2080</v>
       </c>
       <c r="D7" s="6">
-        <v>19265</v>
+        <v>13937</v>
       </c>
     </row>
     <row r="8" ht="12.75">
@@ -304,13 +313,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>2845</v>
+        <v>8438</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <v>2845</v>
+        <v>8438</v>
       </c>
     </row>
     <row r="9" ht="12.75">
@@ -318,13 +327,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>90078</v>
+        <v>24411</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>90078</v>
+        <v>24411</v>
       </c>
     </row>
     <row r="10" ht="12.75">
@@ -332,13 +341,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>98668</v>
+        <v>12902</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>98668</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="11" ht="12.75">
@@ -346,13 +355,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>59586</v>
+        <v>96019</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>59586</v>
+        <v>96019</v>
       </c>
     </row>
     <row r="12" ht="12.75">
@@ -360,13 +369,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="6">
-        <v>33187</v>
+        <v>87693</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>33187</v>
+        <v>87693</v>
       </c>
     </row>
     <row r="13" ht="12.75">
@@ -374,13 +383,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>8230</v>
+        <v>34117</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>8230</v>
+        <v>34117</v>
       </c>
     </row>
     <row r="14" ht="12.75">
@@ -388,13 +397,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>29742</v>
+        <v>80378</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>29742</v>
+        <v>80378</v>
       </c>
     </row>
     <row r="15" ht="12.75">
@@ -402,13 +411,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>13471</v>
+        <v>1714</v>
       </c>
       <c r="C15" s="6">
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>11286</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="16" ht="12.75">
@@ -416,13 +425,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="6">
-        <v>84542</v>
+        <v>124560</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>3362</v>
       </c>
       <c r="D16" s="6">
-        <v>84542</v>
+        <v>121198</v>
       </c>
     </row>
     <row r="17" ht="12.75">
@@ -430,13 +439,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="6">
-        <v>1950</v>
+        <v>29769</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>1950</v>
+        <v>29769</v>
       </c>
     </row>
     <row r="18" ht="12.75">
@@ -444,33 +453,75 @@
         <v>22</v>
       </c>
       <c r="B18" s="6">
-        <v>13127</v>
+        <v>76899</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>13127</v>
+        <v>76899</v>
       </c>
     </row>
     <row r="19" ht="12.75">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B19" s="6">
-        <v>466518</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>4345</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>462173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="12.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4594</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6">
+        <v>619662</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5442</v>
+      </c>
+      <c r="D22" s="6">
+        <v>614220</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
